--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Tigray 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Tigray 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\AHLE parameter tables for subnational divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE76F1C9-5F11-499D-B271-C680B878C1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9ECE5-7661-428B-91CE-44C821E7843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,7 +95,7 @@
     <author>WT</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F263E43-F915-4137-85CF-5A81894CE5E8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{567AD433-C602-4793-AF56-C8F6FFFDC5B4}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{EF78F4E6-039A-B045-8B9B-D365EA49AFBB}">
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{197DA58C-0E1F-4642-9F9C-2F0DE63C34AF}">
+    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{F629E569-BEC6-44AB-8A17-99FA561689CD}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{DE325A39-7F03-4001-A61E-BC0056AFEC89}">
+    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R37" authorId="1" shapeId="0" xr:uid="{76923BFD-A6C4-4EB9-A26A-BD52036ACAA9}">
+    <comment ref="R37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{91F2D058-84AE-4181-B1E8-4C372CE77CEA}">
+    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="1" shapeId="0" xr:uid="{5CE6EF66-611A-4714-A013-6A8C5D13A084}">
+    <comment ref="C44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{B8AC189D-A071-42A5-B581-B1F819D42AD9}">
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{8F661D32-F8E3-4020-9B05-FF924A9DEA48}">
+    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R56" authorId="1" shapeId="0" xr:uid="{0F3B6A2B-7723-48A8-91E6-0284E8B63C3C}">
+    <comment ref="R56" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{E0F57D87-D490-A54E-BF74-50CFE78F96E7}">
+    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9CC69C53-3AF8-164C-9791-D62AE67A6E71}">
+    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{D7DB8497-0070-9242-A38F-B6C1B02B9C4C}">
+    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{8681758D-DB32-814F-BE7E-2E5CEB3799E0}">
+    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{3DA8DB71-74B9-6749-B8AA-8DBEF5D14887}">
+    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -575,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{E9281452-B7CE-0A43-869E-7E88B7B5D10F}">
+    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{AB5D3590-E365-0D4E-B750-8A82ADD944ED}">
+    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -641,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{9D3FEF81-BEDF-BF4C-ACEB-A21E1ECCCF94}">
+    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -674,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{B531BFC8-06AD-1A4D-9758-3C71FBFF8F58}">
+    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -707,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{ACC72A40-72C1-E64B-A41A-A258407DBA9B}">
+    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -740,7 +742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{D421B0EE-8284-474D-A27C-CA894278DEBE}">
+    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -773,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{4AFBBDD4-B71A-A547-8139-A70B50E141DF}">
+    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -806,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{8B1C245A-AAD0-104A-B1EB-206E44EB1382}">
+    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -839,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{582C5344-82DE-FF44-8DA1-9E27F974436C}">
+    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{2EBD08FA-9B59-4A47-A9D8-7A818DB89D75}">
+    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -905,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{4649956B-35AA-42BC-8439-9A6FB7704FD9}">
+    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -929,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C124" authorId="1" shapeId="0" xr:uid="{F2192F06-917C-43E1-8F78-5AE86D2C8D71}">
+    <comment ref="C124" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -953,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{279ED60C-74BD-4DC3-B903-A46A359E1FA9}">
+    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{1ACE5722-BBE3-4795-A4C1-677C921591FB}">
+    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C137" authorId="1" shapeId="0" xr:uid="{37E1F4AE-4DBD-49CC-90A0-E6F91A5D9BFB}">
+    <comment ref="C137" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1030,30 +1032,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="281">
   <si>
     <t># Initial population</t>
   </si>
@@ -1808,216 +1788,6 @@
     <t>rpert(10000, 0.09/12, 0.26/12, 0.105/12)</t>
   </si>
   <si>
-    <t>0.11/13</t>
-  </si>
-  <si>
-    <t>0.11/14</t>
-  </si>
-  <si>
-    <t>0.11/15</t>
-  </si>
-  <si>
-    <t>0.11/16</t>
-  </si>
-  <si>
-    <t>0.11/17</t>
-  </si>
-  <si>
-    <t>0.11/18</t>
-  </si>
-  <si>
-    <t>0.11/19</t>
-  </si>
-  <si>
-    <t>0.11/20</t>
-  </si>
-  <si>
-    <t>0.11/21</t>
-  </si>
-  <si>
-    <t>0.11/22</t>
-  </si>
-  <si>
-    <t>0.11/23</t>
-  </si>
-  <si>
-    <t>0.11/24</t>
-  </si>
-  <si>
-    <t>0.11/25</t>
-  </si>
-  <si>
-    <t>0.11/26</t>
-  </si>
-  <si>
-    <t>0.71/13</t>
-  </si>
-  <si>
-    <t>0.71/14</t>
-  </si>
-  <si>
-    <t>0.71/15</t>
-  </si>
-  <si>
-    <t>0.71/16</t>
-  </si>
-  <si>
-    <t>0.71/17</t>
-  </si>
-  <si>
-    <t>0.71/18</t>
-  </si>
-  <si>
-    <t>0.71/19</t>
-  </si>
-  <si>
-    <t>0.71/20</t>
-  </si>
-  <si>
-    <t>0.71/21</t>
-  </si>
-  <si>
-    <t>0.71/22</t>
-  </si>
-  <si>
-    <t>0.71/23</t>
-  </si>
-  <si>
-    <t>0.71/24</t>
-  </si>
-  <si>
-    <t>0.71/25</t>
-  </si>
-  <si>
-    <t>0.71/26</t>
-  </si>
-  <si>
-    <t>0.28/13</t>
-  </si>
-  <si>
-    <t>0.28/14</t>
-  </si>
-  <si>
-    <t>0.28/15</t>
-  </si>
-  <si>
-    <t>0.28/16</t>
-  </si>
-  <si>
-    <t>0.28/17</t>
-  </si>
-  <si>
-    <t>0.28/18</t>
-  </si>
-  <si>
-    <t>0.28/19</t>
-  </si>
-  <si>
-    <t>0.28/20</t>
-  </si>
-  <si>
-    <t>0.28/21</t>
-  </si>
-  <si>
-    <t>0.28/22</t>
-  </si>
-  <si>
-    <t>0.28/23</t>
-  </si>
-  <si>
-    <t>0.28/24</t>
-  </si>
-  <si>
-    <t>0.28/25</t>
-  </si>
-  <si>
-    <t>0.28/26</t>
-  </si>
-  <si>
-    <t>0/13</t>
-  </si>
-  <si>
-    <t>0/14</t>
-  </si>
-  <si>
-    <t>0/15</t>
-  </si>
-  <si>
-    <t>0/16</t>
-  </si>
-  <si>
-    <t>0/17</t>
-  </si>
-  <si>
-    <t>0/18</t>
-  </si>
-  <si>
-    <t>0/19</t>
-  </si>
-  <si>
-    <t>0/20</t>
-  </si>
-  <si>
-    <t>0/21</t>
-  </si>
-  <si>
-    <t>0/22</t>
-  </si>
-  <si>
-    <t>0/23</t>
-  </si>
-  <si>
-    <t>0/24</t>
-  </si>
-  <si>
-    <t>0/25</t>
-  </si>
-  <si>
-    <t>0/26</t>
-  </si>
-  <si>
-    <t>0.05/13</t>
-  </si>
-  <si>
-    <t>0.05/14</t>
-  </si>
-  <si>
-    <t>0.05/15</t>
-  </si>
-  <si>
-    <t>0.05/16</t>
-  </si>
-  <si>
-    <t>0.05/17</t>
-  </si>
-  <si>
-    <t>0.05/18</t>
-  </si>
-  <si>
-    <t>0.05/19</t>
-  </si>
-  <si>
-    <t>0.05/20</t>
-  </si>
-  <si>
-    <t>0.05/21</t>
-  </si>
-  <si>
-    <t>0.05/22</t>
-  </si>
-  <si>
-    <t>0.05/23</t>
-  </si>
-  <si>
-    <t>0.05/24</t>
-  </si>
-  <si>
-    <t>0.05/25</t>
-  </si>
-  <si>
-    <t>0.05/26</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.139/12, 0.139/12, 0.139/12)</t>
   </si>
   <si>
@@ -2087,9 +1857,6 @@
     <t>rpert(10000, 1.66,1.66, 1.66)</t>
   </si>
   <si>
-    <t>rpert(10000, 0,50,0.50,0.50)</t>
-  </si>
-  <si>
     <t>rpert(10000, 1.48,1.48, 1.48)</t>
   </si>
   <si>
@@ -2099,97 +1866,13 @@
     <t>0.055/12</t>
   </si>
   <si>
-    <t>0.032/13</t>
-  </si>
-  <si>
-    <t>0.032/14</t>
-  </si>
-  <si>
-    <t>0.032/15</t>
-  </si>
-  <si>
-    <t>0.032/16</t>
-  </si>
-  <si>
-    <t>0.032/17</t>
-  </si>
-  <si>
-    <t>0.032/18</t>
-  </si>
-  <si>
-    <t>0.032/19</t>
-  </si>
-  <si>
-    <t>0.032/20</t>
-  </si>
-  <si>
-    <t>0.032/21</t>
-  </si>
-  <si>
-    <t>0.032/22</t>
-  </si>
-  <si>
-    <t>0.032/23</t>
-  </si>
-  <si>
-    <t>0.032/24</t>
-  </si>
-  <si>
-    <t>0.032/25</t>
-  </si>
-  <si>
-    <t>0.032/26</t>
-  </si>
-  <si>
-    <t>0.055/13</t>
-  </si>
-  <si>
-    <t>0.055/14</t>
-  </si>
-  <si>
-    <t>0.055/15</t>
-  </si>
-  <si>
-    <t>0.055/16</t>
-  </si>
-  <si>
-    <t>0.055/17</t>
-  </si>
-  <si>
-    <t>0.055/18</t>
-  </si>
-  <si>
-    <t>0.055/19</t>
-  </si>
-  <si>
-    <t>0.055/20</t>
-  </si>
-  <si>
-    <t>0.055/21</t>
-  </si>
-  <si>
-    <t>0.055/22</t>
-  </si>
-  <si>
-    <t>0.055/23</t>
-  </si>
-  <si>
-    <t>0.055/24</t>
-  </si>
-  <si>
-    <t>0.055/25</t>
-  </si>
-  <si>
-    <t>0.055/26</t>
-  </si>
-  <si>
-    <t>rpert(10000, (2.19*12.5*0.09515), (9*12.5*0.09515), (5.4*12.5*0.09515))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (6000), (26750), (15591))</t>
+    <t>rpert(10000, 0.50,0.50,0.50)</t>
   </si>
   <si>
     <t>rpert(10000, (920.52/12), (920.52/12), (920.52/12))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2675), (15591), (6000))</t>
   </si>
   <si>
     <t>rpert(10000, 0.062/12, 0.062/12, 0.062/12)</t>
@@ -2823,14 +2506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="AD10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,7 +2523,7 @@
     <col min="3" max="3" width="47.28515625" style="26" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="26" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="26" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="26" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="19" style="26" customWidth="1"/>
@@ -3859,7 +3542,7 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="C11" s="26">
         <v>1487037</v>
@@ -4382,49 +4065,49 @@
         <v>80</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="E17" s="49" t="s">
         <v>210</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="O17" s="49" t="s">
-        <v>210</v>
+        <v>277</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="R17" s="30">
         <v>0.87</v>
@@ -4911,49 +4594,49 @@
         <v>83</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>212</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="O23" s="49" t="s">
         <v>212</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="R23" s="30" t="s">
         <v>239</v>
@@ -5815,46 +5498,46 @@
         <v>205</v>
       </c>
       <c r="S34" s="30" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="T34" s="30" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="U34" s="30" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="W34" s="30" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="X34" s="30" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="Y34" s="30" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="Z34" s="30" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="AA34" s="30" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="AB34" s="30" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="AC34" s="30" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="AD34" s="30" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="AE34" s="30" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="AF34" s="30" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
@@ -5916,46 +5599,46 @@
         <v>206</v>
       </c>
       <c r="S35" s="30" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="T35" s="30" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="U35" s="30" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="V35" s="30" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="W35" s="30" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="X35" s="30" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="Y35" s="30" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="Z35" s="30" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="AA35" s="30" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="AB35" s="30" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="AC35" s="30" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="AD35" s="30" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="AE35" s="30" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="AF35" s="30" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
@@ -5972,94 +5655,94 @@
         <v>13</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="H36" s="52" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="K36" s="52" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="L36" s="52" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="M36" s="52" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="N36" s="52" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="O36" s="52" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="P36" s="52" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="Q36" s="52" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="R36" s="30" t="s">
         <v>207</v>
       </c>
       <c r="S36" s="30" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="T36" s="30" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="U36" s="30" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="V36" s="30" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="W36" s="30" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="X36" s="30" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="Y36" s="30" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="Z36" s="30" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="AA36" s="30" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="AB36" s="30" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="AC36" s="30" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="AD36" s="30" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="AE36" s="30" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="AF36" s="30" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
@@ -6076,94 +5759,94 @@
         <v>13</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
       <c r="J37" s="52" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="K37" s="52" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="L37" s="52" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="M37" s="52" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="N37" s="52" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="O37" s="52" t="s">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="P37" s="52" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="52" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="R37" s="30" t="s">
         <v>209</v>
       </c>
       <c r="S37" s="30" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="T37" s="30" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="U37" s="30" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="V37" s="30" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="W37" s="30" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="X37" s="30" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="Y37" s="30" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="Z37" s="30" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="AA37" s="30" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="AB37" s="30" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="AC37" s="30" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="AD37" s="30" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="AE37" s="30" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="AF37" s="30" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
@@ -6180,94 +5863,94 @@
         <v>13</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="I38" s="52" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="K38" s="52" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="M38" s="52" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="N38" s="52" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="O38" s="52" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="P38" s="52" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="52" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="R38" s="53" t="s">
         <v>207</v>
       </c>
       <c r="S38" s="53" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="T38" s="53" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="U38" s="53" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="V38" s="53" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="W38" s="53" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="X38" s="53" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="Y38" s="53" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="Z38" s="53" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="AA38" s="53" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="AB38" s="53" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="AC38" s="53" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="AD38" s="53" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="AE38" s="53" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="AF38" s="53" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
@@ -6284,94 +5967,94 @@
         <v>14</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="I39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="K39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="L39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="M39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="N39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="O39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="P39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="R39" s="53" t="s">
         <v>208</v>
       </c>
       <c r="S39" s="53" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="T39" s="53" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="U39" s="53" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="V39" s="53" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="W39" s="53" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="X39" s="53" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="Y39" s="53" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="Z39" s="53" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="AA39" s="53" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="AB39" s="53" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="AC39" s="53" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="AD39" s="53" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="AE39" s="53" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="AF39" s="53" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
@@ -6385,94 +6068,94 @@
         <v>141</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="I40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="K40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="L40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="M40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="N40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="O40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="P40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="52" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="R40" s="30" t="s">
         <v>209</v>
       </c>
       <c r="S40" s="30" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="T40" s="30" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="U40" s="30" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="V40" s="30" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="W40" s="30" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="X40" s="30" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="Y40" s="30" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="Z40" s="30" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="AA40" s="30" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="AB40" s="30" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="AC40" s="30" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="AD40" s="30" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="AE40" s="30" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="AF40" s="30" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
@@ -6512,10 +6195,7 @@
       <c r="AC41" s="29"/>
       <c r="AD41" s="29"/>
       <c r="AE41" s="29"/>
-      <c r="AF41" s="29" t="e" cm="1">
-        <f t="array" ref="AF41">+AQ37AU3C35:AF41</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="AF41" s="29"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
@@ -6616,7 +6296,7 @@
         <v>250</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="S43" s="37">
         <v>0</v>
@@ -6628,16 +6308,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="W43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="X43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="Y43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="Z43" s="37">
         <v>0</v>
@@ -6646,19 +6326,19 @@
         <v>0</v>
       </c>
       <c r="AB43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="AC43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="AD43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="AE43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="AF43" s="36" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
@@ -6720,7 +6400,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="S44" s="37">
         <v>0</v>
@@ -6729,25 +6409,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="V44" s="37">
         <v>0</v>
       </c>
       <c r="W44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="X44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="Y44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="Z44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="AA44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="AB44" s="37">
         <v>0</v>
@@ -6756,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="AD44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="AE44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="AF44" s="36" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
@@ -8753,52 +8433,52 @@
         <v>34</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="K69" s="49" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="L69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="M69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="P69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="Q69" s="26" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
       <c r="R69" s="30" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="S69" s="30" t="s">
         <v>168</v>
@@ -8859,49 +8539,49 @@
         <v>35</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="M70" s="49" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="R70" s="30" t="s">
         <v>169</v>
@@ -8965,49 +8645,49 @@
         <v>36</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="E71" s="49" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="K71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="L71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="M71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="O71" s="49" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="P71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="Q71" s="26" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="R71" s="30" t="s">
         <v>170</v>
@@ -9084,49 +8764,49 @@
         <v>37</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="L72" s="49" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="O72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="R72" s="30" t="s">
         <v>171</v>
@@ -9190,49 +8870,49 @@
         <v>38</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="N73" s="49" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="O73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="P73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Q73" s="26" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="R73" s="30" t="s">
         <v>172</v>
@@ -9296,49 +8976,49 @@
         <v>39</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="O74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="P74" s="49" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="Q74" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="R74" s="30" t="s">
         <v>173</v>
@@ -9399,49 +9079,49 @@
         <v>144</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="M75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="N75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="O75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="P75" s="26" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="Q75" s="49" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="R75" s="30">
         <v>0</v>
@@ -9971,49 +9651,49 @@
         <v>106</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="K84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="N84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="P84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="Q84" s="26" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="R84" s="30" t="s">
         <v>247</v>
@@ -12230,94 +11910,94 @@
         <v>58</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="L112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="M112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="P112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="Q112" s="26" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="R112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="S112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="T112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="U112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="V112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="W112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="X112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="Y112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="Z112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AA112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AB112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AC112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AD112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AE112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AF112" s="30" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
@@ -12759,94 +12439,94 @@
         <v>153</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="H122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="K122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="L122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="M122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="N122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="O122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="P122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="Q122" s="26" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="R122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="S122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="T122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="U122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="V122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="W122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="X122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="Y122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="Z122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AA122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AB122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AC122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AD122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AE122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AF122" s="30" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="AG122" s="5"/>
       <c r="AH122" s="5"/>
@@ -13093,94 +12773,94 @@
         <v>147</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="H125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="J125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="K125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="L125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="M125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="N125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="O125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="P125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="Q125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="R125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="S125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="T125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="U125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="V125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="W125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="X125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="Y125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="Z125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AA125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AB125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AC125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AD125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AE125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AF125" s="26" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="AG125" s="5"/>
       <c r="AH125" s="5"/>
@@ -13400,94 +13080,94 @@
         <v>69</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="E131" s="51">
         <v>0</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="K131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="L131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="M131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="N131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="O131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="P131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="Q131" s="26" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="R131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="S131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="T131" s="30">
         <v>0</v>
       </c>
       <c r="U131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="V131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="W131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="X131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="Y131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="Z131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AA131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AB131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AC131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AD131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AE131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AF131" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AM131" s="5"/>
       <c r="AY131"/>
@@ -13498,94 +13178,94 @@
       </c>
       <c r="B132" s="35"/>
       <c r="C132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="E132" s="51">
         <v>0</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="H132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="K132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="L132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="M132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="N132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="O132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="P132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="Q132" s="26" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="R132" s="30" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="S132" s="30" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="T132" s="30">
         <v>0</v>
       </c>
       <c r="U132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="V132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="W132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="X132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="Y132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="Z132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AA132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AB132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AC132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AD132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AE132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AF132" s="30" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="AG132" s="5"/>
       <c r="AH132" s="5"/>
@@ -14677,7 +14357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D08064-68C3-4BB0-A64D-3A606C4D4B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/Tigray 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/Tigray 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9ECE5-7661-428B-91CE-44C821E7843F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66297785-519C-4C38-8F41-FB8545C41DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1872,10 +1872,10 @@
     <t>rpert(10000, (920.52/12), (920.52/12), (920.52/12))</t>
   </si>
   <si>
-    <t>rpert(10000, (2675), (15591), (6000))</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.062/12, 0.062/12, 0.062/12)</t>
+  </si>
+  <si>
+    <t>rpert(10000, (6000), (26750), (15591))</t>
   </si>
 </sst>
 </file>
@@ -6400,7 +6400,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S44" s="37">
         <v>0</v>
@@ -6409,25 +6409,25 @@
         <v>0</v>
       </c>
       <c r="U44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V44" s="37">
         <v>0</v>
       </c>
       <c r="W44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB44" s="37">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="AD44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AE44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF44" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
@@ -8876,7 +8876,7 @@
         <v>256</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F73" s="26" t="s">
         <v>256</v>
@@ -8903,7 +8903,7 @@
         <v>256</v>
       </c>
       <c r="N73" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O73" s="26" t="s">
         <v>256</v>
